--- a/resources/samples/evaluated-transcriptions/1_reviewed.xlsx
+++ b/resources/samples/evaluated-transcriptions/1_reviewed.xlsx
@@ -335,7 +335,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="80.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,7 +387,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>29</v>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
